--- a/biology/Botanique/Fomes/Fomes.xlsx
+++ b/biology/Botanique/Fomes/Fomes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Fomes[1], « aliment du feu[2]», en latin, amadouvier en français, est un genre de champignons de la famille des Polyporacées.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fomes, « aliment du feu», en latin, amadouvier en français, est un genre de champignons de la famille des Polyporacées.
 Ce genre a hébergé de nombreuses espèces de polyporacées - par exemple le  polypore du pin par la suite renommé Heterobasidion annosum - dont témoignent les 843 combinaisons listées dans Index Fungorum, avant d'en être progressivement dépouillé, entre autres par la création du genre Fomitopsis (les ressemblants à Fomes, ou « faux amadouviers »).
-Le genre Fomes comprend maintenant une douzaine d'espèces, dont la plus connue est désignée par le pléonasme Fomes fomentarius, l'amadouvier. [Anciennement "Agaric du chêne" fournisseur d'amadou + vier (fournisseur)][3]
+Le genre Fomes comprend maintenant une douzaine d'espèces, dont la plus connue est désignée par le pléonasme Fomes fomentarius, l'amadouvier. [Anciennement "Agaric du chêne" fournisseur d'amadou + vier (fournisseur)]
 </t>
         </is>
       </c>
@@ -513,9 +525,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Catalogue of Life                                   (28 mars 2013)[4] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Catalogue of Life                                   (28 mars 2013) :
 Fomes chaquensis
 Fomes clelandii
 Fomes extensus
